--- a/Plot_tool/xlsx/DCT_8x8.xlsx
+++ b/Plot_tool/xlsx/DCT_8x8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BE0D66-8B93-4D2E-93B3-B710370A843D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12218C-E9F9-4E4B-B595-28BF58DA21B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16560" yWindow="1200" windowWidth="11310" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1526,7 +1526,7 @@
         <v>11.88</v>
       </c>
       <c r="C10" s="3">
-        <v>29.8018</v>
+        <v>29.501825506111299</v>
       </c>
       <c r="D10" s="4">
         <v>0.83113000000000004</v>

--- a/Plot_tool/xlsx/DCT_8x8.xlsx
+++ b/Plot_tool/xlsx/DCT_8x8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12218C-E9F9-4E4B-B595-28BF58DA21B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A1C87-1F5D-46F7-A5C3-EA113EEFFC1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="1200" windowWidth="11310" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="3240" windowWidth="12315" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -709,20 +709,20 @@
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="5">
-        <v>2.12</v>
+      <c r="B2" s="7">
+        <v>0.01</v>
       </c>
       <c r="C2" s="3">
-        <v>21.466083133759899</v>
+        <v>23.339993926389099</v>
       </c>
       <c r="D2" s="4">
-        <v>0.665445956318924</v>
+        <v>0.68790778040005196</v>
       </c>
       <c r="E2" s="1">
-        <v>27793.219238281199</v>
+        <v>24813.2869873046</v>
       </c>
       <c r="F2" s="1">
-        <v>7356.6448364257803</v>
+        <v>6994.2438354492097</v>
       </c>
       <c r="G2" s="6">
         <v>444575.67092446901</v>
@@ -735,100 +735,100 @@
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
-      <c r="B3" s="5">
-        <v>3.09499999999999</v>
+      <c r="B3" s="7">
+        <v>3.06</v>
       </c>
       <c r="C3" s="3">
-        <v>24.005602659741601</v>
+        <v>24.007795206706501</v>
       </c>
       <c r="D3" s="4">
-        <v>0.70345627372020403</v>
+        <v>0.70798625712186602</v>
       </c>
       <c r="E3" s="1">
-        <v>22447.1600341796</v>
+        <v>22472.963989257802</v>
       </c>
       <c r="F3" s="1">
-        <v>6792.2691040038999</v>
+        <v>6799.6432495117097</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
-      <c r="B4" s="5">
-        <v>4.2649999999999997</v>
+      <c r="B4" s="7">
+        <v>4.26</v>
       </c>
       <c r="C4" s="3">
-        <v>25.781214607049201</v>
+        <v>25.809494839383898</v>
       </c>
       <c r="D4" s="4">
-        <v>0.75367062352127501</v>
+        <v>0.75478611548069996</v>
       </c>
       <c r="E4" s="1">
-        <v>17394.899169921799</v>
+        <v>17402.106079101501</v>
       </c>
       <c r="F4" s="1">
-        <v>5952.3429565429597</v>
+        <v>5972.0477905273401</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
-      <c r="B5" s="5">
-        <v>5.375</v>
+      <c r="B5" s="7">
+        <v>5.39</v>
       </c>
       <c r="C5" s="3">
-        <v>26.8694675789278</v>
+        <v>26.893125471451299</v>
       </c>
       <c r="D5" s="4">
-        <v>0.77641377129601596</v>
+        <v>0.77815529742412903</v>
       </c>
       <c r="E5" s="1">
-        <v>14986.346191406201</v>
+        <v>14920.7087402343</v>
       </c>
       <c r="F5" s="1">
-        <v>5415.9022216796802</v>
+        <v>5360.5179443359302</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
-      <c r="B6" s="5">
-        <v>6.61</v>
+      <c r="B6" s="7">
+        <v>6.63</v>
       </c>
       <c r="C6" s="3">
-        <v>27.888070503401401</v>
+        <v>27.904950042473299</v>
       </c>
       <c r="D6" s="4">
-        <v>0.79881333538201205</v>
+        <v>0.79892213854925598</v>
       </c>
       <c r="E6" s="1">
-        <v>13109.690917968701</v>
+        <v>13006.51953125</v>
       </c>
       <c r="F6" s="1">
-        <v>5116.5068969726499</v>
+        <v>5054.1853027343705</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
-      <c r="B7" s="5">
-        <v>8.0299999999999994</v>
+      <c r="B7" s="7">
+        <v>8.07</v>
       </c>
       <c r="C7" s="3">
-        <v>28.749264131201599</v>
+        <v>28.799336259372101</v>
       </c>
       <c r="D7" s="4">
-        <v>0.81791723530442295</v>
+        <v>0.81838055048260705</v>
       </c>
       <c r="E7" s="1">
-        <v>11984.2624511718</v>
+        <v>11912.0428466796</v>
       </c>
       <c r="F7" s="1">
-        <v>4853.2906494140598</v>
+        <v>4834.56982421875</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -836,139 +836,139 @@
         <v>0.5</v>
       </c>
       <c r="B8" s="7">
-        <v>9.4</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="C8" s="3">
-        <v>29.478910552473199</v>
+        <v>29.576788955079302</v>
       </c>
       <c r="D8" s="4">
-        <v>0.83674558520089004</v>
+        <v>0.838972238250001</v>
       </c>
       <c r="E8" s="1">
-        <v>11117.0856933593</v>
+        <v>11110.7264404296</v>
       </c>
       <c r="F8" s="1">
-        <v>4737.5017700195303</v>
+        <v>4706.1047363281205</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B9" s="5">
-        <v>10.975</v>
+      <c r="B9" s="7">
+        <v>11.04</v>
       </c>
       <c r="C9" s="3">
-        <v>30.1507516549154</v>
+        <v>30.1500271161513</v>
       </c>
       <c r="D9" s="4">
-        <v>0.850692994196382</v>
+        <v>0.85072343600094402</v>
       </c>
       <c r="E9" s="1">
-        <v>10332.930175781201</v>
+        <v>10251.4814453125</v>
       </c>
       <c r="F9" s="1">
-        <v>4489.9445190429597</v>
+        <v>4474.3173217773401</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
-      <c r="B10" s="5">
-        <v>12.57</v>
+      <c r="B10" s="7">
+        <v>12.73</v>
       </c>
       <c r="C10" s="3">
-        <v>30.682311717557301</v>
+        <v>30.760462078918099</v>
       </c>
       <c r="D10" s="4">
-        <v>0.86058616396695498</v>
+        <v>0.86191904400240205</v>
       </c>
       <c r="E10" s="1">
-        <v>9800.935546875</v>
+        <v>9721.60595703125</v>
       </c>
       <c r="F10" s="1">
-        <v>4374.2037963867097</v>
+        <v>4383.1394042968705</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
-      <c r="B11" s="5">
-        <v>14.37</v>
+      <c r="B11" s="7">
+        <v>14.49</v>
       </c>
       <c r="C11" s="3">
-        <v>31.255027490896101</v>
+        <v>31.279438937845601</v>
       </c>
       <c r="D11" s="4">
-        <v>0.87254553064567797</v>
+        <v>0.87221371109115298</v>
       </c>
       <c r="E11" s="1">
-        <v>9385.27783203125</v>
+        <v>9300.3577880859302</v>
       </c>
       <c r="F11" s="1">
-        <v>4270.8080444335901</v>
+        <v>4251.1265258788999</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
-      <c r="B12" s="5">
-        <v>15.965</v>
+      <c r="B12" s="7">
+        <v>16.28</v>
       </c>
       <c r="C12" s="3">
-        <v>31.662557147712</v>
+        <v>31.765488567984399</v>
       </c>
       <c r="D12" s="4">
-        <v>0.88115850414931896</v>
+        <v>0.88356219110363599</v>
       </c>
       <c r="E12" s="1">
-        <v>9100.9753417968695</v>
+        <v>8949.47607421875</v>
       </c>
       <c r="F12" s="1">
-        <v>4184.0696411132803</v>
+        <v>4167.2481689453098</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
-      <c r="B13" s="5">
-        <v>17.795000000000002</v>
+      <c r="B13" s="7">
+        <v>18.13</v>
       </c>
       <c r="C13" s="3">
-        <v>32.113535358145199</v>
+        <v>32.188149778235797</v>
       </c>
       <c r="D13" s="4">
-        <v>0.88931948495434898</v>
+        <v>0.89124149326164503</v>
       </c>
       <c r="E13" s="1">
-        <v>8660.0438232421802</v>
+        <v>8646.7978515625</v>
       </c>
       <c r="F13" s="1">
-        <v>4026.2525024413999</v>
+        <v>4030.1842651367101</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
-      <c r="B14" s="5">
-        <v>19.760000000000002</v>
+      <c r="B14" s="7">
+        <v>20.079999999999998</v>
       </c>
       <c r="C14" s="3">
-        <v>32.547293091197197</v>
+        <v>32.592721791765698</v>
       </c>
       <c r="D14" s="4">
-        <v>0.89619528873195198</v>
+        <v>0.89625658845205602</v>
       </c>
       <c r="E14" s="1">
-        <v>8481.4050292968695</v>
+        <v>8483.23583984375</v>
       </c>
       <c r="F14" s="1">
-        <v>4041.99682617187</v>
+        <v>4044.0599365234302</v>
       </c>
     </row>
     <row r="19" spans="3:3">
@@ -1313,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Plot_tool/xlsx/DCT_8x8.xlsx
+++ b/Plot_tool/xlsx/DCT_8x8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6AD779-F9B8-4D2C-BFE1-5AAD5439C435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568B413D-F400-473D-9087-E926AA20F11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Mandrill" sheetId="6" r:id="rId6"/>
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
-    <sheet name="test02" sheetId="9" r:id="rId9"/>
-    <sheet name="test19" sheetId="10" r:id="rId10"/>
+    <sheet name="TEST02" sheetId="9" r:id="rId9"/>
+    <sheet name="TEST19" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -1110,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DAA585-08A2-4DCB-A9F6-69261A2B4BB2}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3666,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36383A03-410A-45ED-B7FA-B68BA94C814E}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/Plot_tool/xlsx/DCT_8x8.xlsx
+++ b/Plot_tool/xlsx/DCT_8x8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568B413D-F400-473D-9087-E926AA20F11E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E799ABED-2E11-417F-8874-AAFBAC0915A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -1162,11 +1162,11 @@
       <c r="D2" s="4">
         <v>0.84529616598763502</v>
       </c>
-      <c r="E2" s="1">
-        <v>49456.728149413997</v>
+      <c r="E2" s="14">
+        <v>3091.0455093383698</v>
       </c>
       <c r="F2" s="1">
-        <v>11215.666809082</v>
+        <v>700.97917556762695</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -1184,11 +1184,11 @@
       <c r="D3" s="4">
         <v>0.89711210473587</v>
       </c>
-      <c r="E3" s="1">
-        <v>24545.9970703125</v>
+      <c r="E3" s="14">
+        <v>1534.1248168945301</v>
       </c>
       <c r="F3" s="1">
-        <v>6649.9368896484302</v>
+        <v>415.621055603027</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1204,11 +1204,11 @@
       <c r="D4" s="4">
         <v>0.918006632520451</v>
       </c>
-      <c r="E4" s="1">
-        <v>16803.3244628906</v>
+      <c r="E4" s="14">
+        <v>1050.20777893066</v>
       </c>
       <c r="F4" s="1">
-        <v>5259.6338500976499</v>
+        <v>328.727115631103</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1224,11 +1224,11 @@
       <c r="D5" s="4">
         <v>0.93345099960479605</v>
       </c>
-      <c r="E5" s="1">
-        <v>13253.8770751953</v>
+      <c r="E5" s="14">
+        <v>828.36731719970703</v>
       </c>
       <c r="F5" s="1">
-        <v>4648.2918701171802</v>
+        <v>290.51824188232399</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1244,11 +1244,11 @@
       <c r="D6" s="4">
         <v>0.94146099856814702</v>
       </c>
-      <c r="E6" s="1">
-        <v>11402.919433593701</v>
+      <c r="E6" s="14">
+        <v>712.68246459960903</v>
       </c>
       <c r="F6" s="1">
-        <v>4360.8013305663999</v>
+        <v>272.55008316039999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1264,11 +1264,11 @@
       <c r="D7" s="4">
         <v>0.94645286666398798</v>
       </c>
-      <c r="E7" s="1">
-        <v>10455.349975585899</v>
+      <c r="E7" s="14">
+        <v>653.45937347412098</v>
       </c>
       <c r="F7" s="1">
-        <v>4239.0632934570303</v>
+        <v>264.941455841064</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1284,11 +1284,11 @@
       <c r="D8" s="4">
         <v>0.95071193410347299</v>
       </c>
-      <c r="E8" s="1">
-        <v>9925.4666748046802</v>
+      <c r="E8" s="14">
+        <v>620.34166717529297</v>
       </c>
       <c r="F8" s="1">
-        <v>4198.2127075195303</v>
+        <v>262.38829421997002</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1304,11 +1304,11 @@
       <c r="D9" s="4">
         <v>0.95364143273532298</v>
       </c>
-      <c r="E9" s="1">
-        <v>9546.80712890625</v>
+      <c r="E9" s="14">
+        <v>596.67544555664006</v>
       </c>
       <c r="F9" s="1">
-        <v>4191.9675903320303</v>
+        <v>261.99797439575099</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1324,11 +1324,11 @@
       <c r="D10" s="4">
         <v>0.95623905208996696</v>
       </c>
-      <c r="E10" s="1">
-        <v>9277.2624511718695</v>
+      <c r="E10" s="14">
+        <v>579.82890319824196</v>
       </c>
       <c r="F10" s="1">
-        <v>4182.4931640625</v>
+        <v>261.40582275390602</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1344,11 +1344,11 @@
       <c r="D11" s="4">
         <v>0.95859208220591996</v>
       </c>
-      <c r="E11" s="1">
-        <v>9060.04296875</v>
+      <c r="E11" s="14">
+        <v>566.252685546875</v>
       </c>
       <c r="F11" s="1">
-        <v>4175.6932983398401</v>
+        <v>260.98083114624001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1364,11 +1364,11 @@
       <c r="D12" s="4">
         <v>0.96067670476178502</v>
       </c>
-      <c r="E12" s="1">
-        <v>8914.5072021484302</v>
+      <c r="E12" s="14">
+        <v>557.156700134277</v>
       </c>
       <c r="F12" s="1">
-        <v>4180.2471923828098</v>
+        <v>261.26544952392499</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1384,11 +1384,11 @@
       <c r="D13" s="4">
         <v>0.96202275370534995</v>
       </c>
-      <c r="E13" s="1">
-        <v>8810.10595703125</v>
+      <c r="E13" s="14">
+        <v>550.63162231445301</v>
       </c>
       <c r="F13" s="1">
-        <v>4179.0151977538999</v>
+        <v>261.18844985961903</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1404,11 +1404,11 @@
       <c r="D14" s="4">
         <v>0.96366449538042198</v>
       </c>
-      <c r="E14" s="1">
-        <v>8710.7999267578107</v>
+      <c r="E14" s="14">
+        <v>544.42499542236305</v>
       </c>
       <c r="F14" s="1">
-        <v>4181.4035034179597</v>
+        <v>261.33771896362299</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +3667,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
@@ -3718,11 +3718,11 @@
       <c r="D2" s="4">
         <v>0.92413305471312501</v>
       </c>
-      <c r="E2" s="1">
-        <v>25304.371582031199</v>
+      <c r="E2" s="14">
+        <v>1581.5232238769499</v>
       </c>
       <c r="F2" s="1">
-        <v>7627.2877807617097</v>
+        <v>476.70548629760702</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -3740,11 +3740,11 @@
       <c r="D3" s="4">
         <v>0.95052207641377795</v>
       </c>
-      <c r="E3" s="1">
-        <v>12691.272094726501</v>
+      <c r="E3" s="14">
+        <v>793.20450592041004</v>
       </c>
       <c r="F3" s="1">
-        <v>4929.6476440429597</v>
+        <v>308.10297775268498</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3760,11 +3760,11 @@
       <c r="D4" s="4">
         <v>0.96238732303640895</v>
       </c>
-      <c r="E4" s="1">
-        <v>9062.0354003906195</v>
+      <c r="E4" s="14">
+        <v>566.37721252441395</v>
       </c>
       <c r="F4" s="1">
-        <v>4103.4395141601499</v>
+        <v>256.46496963500903</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3780,11 +3780,11 @@
       <c r="D5" s="4">
         <v>0.96837706701923398</v>
       </c>
-      <c r="E5" s="1">
-        <v>7587.8739013671802</v>
+      <c r="E5" s="14">
+        <v>474.24211883544899</v>
       </c>
       <c r="F5" s="1">
-        <v>3759.0042114257799</v>
+        <v>234.93776321411099</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3800,11 +3800,11 @@
       <c r="D6" s="4">
         <v>0.97151659907735699</v>
       </c>
-      <c r="E6" s="1">
-        <v>6926.9815673828098</v>
+      <c r="E6" s="14">
+        <v>432.93634796142499</v>
       </c>
       <c r="F6" s="1">
-        <v>3627.2210693359302</v>
+        <v>226.70131683349601</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3820,11 +3820,11 @@
       <c r="D7" s="4">
         <v>0.97361425500234799</v>
       </c>
-      <c r="E7" s="1">
-        <v>6601.3890380859302</v>
+      <c r="E7" s="14">
+        <v>412.58681488037098</v>
       </c>
       <c r="F7" s="1">
-        <v>3533.39770507812</v>
+        <v>220.83735656738199</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3840,11 +3840,11 @@
       <c r="D8" s="4">
         <v>0.97511422245833002</v>
       </c>
-      <c r="E8" s="1">
-        <v>6460.173828125</v>
+      <c r="E8" s="14">
+        <v>403.76086425781199</v>
       </c>
       <c r="F8" s="1">
-        <v>3510.0733032226499</v>
+        <v>219.37958145141599</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3860,11 +3860,11 @@
       <c r="D9" s="4">
         <v>0.97628140564866295</v>
       </c>
-      <c r="E9" s="1">
-        <v>6364.669921875</v>
+      <c r="E9" s="14">
+        <v>397.79187011718699</v>
       </c>
       <c r="F9" s="1">
-        <v>3485.56274414062</v>
+        <v>217.84767150878901</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3880,11 +3880,11 @@
       <c r="D10" s="4">
         <v>0.97732768069523002</v>
       </c>
-      <c r="E10" s="1">
-        <v>6313.9606933593705</v>
+      <c r="E10" s="14">
+        <v>394.62254333496003</v>
       </c>
       <c r="F10" s="1">
-        <v>3488.3063354492101</v>
+        <v>218.019145965576</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3900,11 +3900,11 @@
       <c r="D11" s="4">
         <v>0.978242052716503</v>
       </c>
-      <c r="E11" s="1">
-        <v>6279.5985107421802</v>
+      <c r="E11" s="14">
+        <v>392.47490692138598</v>
       </c>
       <c r="F11" s="1">
-        <v>3490.3446655273401</v>
+        <v>218.14654159545799</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3920,11 +3920,11 @@
       <c r="D12" s="4">
         <v>0.97901167938662004</v>
       </c>
-      <c r="E12" s="1">
-        <v>6260.1993408203098</v>
+      <c r="E12" s="14">
+        <v>391.26245880126902</v>
       </c>
       <c r="F12" s="1">
-        <v>3470.4620971679601</v>
+        <v>216.90388107299799</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3940,11 +3940,11 @@
       <c r="D13" s="4">
         <v>0.97970370157799302</v>
       </c>
-      <c r="E13" s="1">
-        <v>6261.3659667968705</v>
+      <c r="E13" s="14">
+        <v>391.33537292480401</v>
       </c>
       <c r="F13" s="1">
-        <v>3473.2259521484302</v>
+        <v>217.076622009277</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3960,11 +3960,11 @@
       <c r="D14" s="4">
         <v>0.98037559669894003</v>
       </c>
-      <c r="E14" s="1">
-        <v>6242.9945068359302</v>
+      <c r="E14" s="14">
+        <v>390.18715667724598</v>
       </c>
       <c r="F14" s="1">
-        <v>3463.2161865234302</v>
+        <v>216.45101165771399</v>
       </c>
     </row>
   </sheetData>

--- a/Plot_tool/xlsx/DCT_8x8.xlsx
+++ b/Plot_tool/xlsx/DCT_8x8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF863B4-8100-4B14-92AC-FD2D9E77D5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876C80DD-8385-47A6-9BC1-74593CBD9772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="N8RGB" sheetId="11" r:id="rId11"/>
     <sheet name="N6RGB" sheetId="12" r:id="rId12"/>
     <sheet name="Lenna256" sheetId="14" r:id="rId13"/>
+    <sheet name="Lenna512" sheetId="15" r:id="rId14"/>
+    <sheet name="Boat512" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="8">
   <si>
     <t>bpp</t>
   </si>
@@ -2060,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5B26E8-A9C4-4ED4-90B9-13113975686C}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2365,6 +2367,646 @@
   <phoneticPr fontId="18"/>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F8C8BA-9198-474E-95B1-9A5B6C119657}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>24.3251499166388</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.64048453254875204</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20182.290649414099</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4924.5662231445303</v>
+      </c>
+      <c r="G2" s="11">
+        <v>392360.09740670997</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1064656.5452720399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="C3" s="3">
+        <v>26.007517462507899</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.70215314810801599</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15110.5301513672</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4121.0891113281295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.08</v>
+      </c>
+      <c r="C4" s="3">
+        <v>27.4008108287955</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.73677930557277305</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12740.134399414101</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3779.8016967773401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6.48</v>
+      </c>
+      <c r="C5" s="3">
+        <v>28.498964609532099</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.76495134264940501</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10948.8332519531</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3477.0280151367201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.07</v>
+      </c>
+      <c r="C6" s="3">
+        <v>29.512546277096099</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.79269787962892801</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9478.427734375</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3153.3404541015602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9.76</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30.2907521693243</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.81339516736060202</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8647.3503417968805</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2875.38330078125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11.42</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30.914798486746999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.82836478185108298</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7973.1513671875</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2717.0245971679701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="3">
+        <v>13.29</v>
+      </c>
+      <c r="C9" s="3">
+        <v>31.4945061121464</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.84222804691742303</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7504.5277099609402</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2644.2758178710901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15.28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>32.003515424669203</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.85305634584137202</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7002.2991943359402</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2508.3839111328102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17.34</v>
+      </c>
+      <c r="C11" s="3">
+        <v>32.467413558229502</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.86310976876948098</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6601.78662109375</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2439.6702880859398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>32.8840414093454</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.871091915749866</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6370.1431884765598</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2347.43237304688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="3">
+        <v>21.81</v>
+      </c>
+      <c r="C13" s="3">
+        <v>33.250733720825998</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.87819817227901598</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6235.0504150390598</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2272.9542236328102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>24.32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>33.605105497860698</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.88448558075105499</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6032.4989013671902</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2191.98681640625</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE54628F-7715-481F-89AA-FB94E2476DB1}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="C2" s="3">
+        <v>23.340519187104501</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.63162771425800102</v>
+      </c>
+      <c r="E2" s="1">
+        <v>23506.309204101599</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6145.3779296875</v>
+      </c>
+      <c r="G2" s="11">
+        <v>416751.14302269398</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1345042.18765495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.37</v>
+      </c>
+      <c r="C3" s="3">
+        <v>24.295439443633299</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.66707293851496696</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20205.644897460901</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5608.3641967773401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="C4" s="3">
+        <v>25.6372078730037</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.71131614296247303</v>
+      </c>
+      <c r="E4" s="1">
+        <v>17184.835815429698</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5310.0109252929697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.64</v>
+      </c>
+      <c r="C5" s="3">
+        <v>26.608933321273401</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.74278898961505302</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15215.7556152344</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4945.4602050781295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.79</v>
+      </c>
+      <c r="C6" s="3">
+        <v>27.323393592012099</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.76657937761468897</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14018.769165039101</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4808.7593383789099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8.02</v>
+      </c>
+      <c r="C7" s="3">
+        <v>27.9629837137572</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.78650860087048402</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13323.4686279297</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4746.6688232421902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C8" s="3">
+        <v>28.557591509356701</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.80569369949346403</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12795.8358154297</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4596.87890625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>29.0799068592803</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.82155466520190301</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11959.785522460899</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4320.7092285156295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>12.03</v>
+      </c>
+      <c r="C10" s="3">
+        <v>29.537441339434199</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.83282210210017904</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11449.120605468799</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4139.4296875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="3">
+        <v>13.51</v>
+      </c>
+      <c r="C11" s="3">
+        <v>29.953071287446502</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.84504659025331297</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11161.5026855469</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4134.0791625976599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15.02</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30.359656471333199</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.85538891487770397</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10792.5163574219</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4010.7865600585901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="3">
+        <v>16.62</v>
+      </c>
+      <c r="C13" s="3">
+        <v>30.717615124262501</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.86332591089061494</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10553.664428710899</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3838.2997436523401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>18.28</v>
+      </c>
+      <c r="C14" s="3">
+        <v>31.080616772175301</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.872063385755944</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10143.0821533203</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3828.4754638671898</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>

--- a/Plot_tool/xlsx/DCT_8x8.xlsx
+++ b/Plot_tool/xlsx/DCT_8x8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,7 @@
     <sheet name="Lenna512" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Boat512" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="Trumpet" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Sailboat256" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="8">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -524,17 +525,17 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B2:B14 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,16 +855,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="1" sqref="B2:B14 J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,16 +1174,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="B2:B14 G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,16 +1493,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,16 +1812,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="1" sqref="B2:B14 E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,16 +2131,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="1" sqref="B2:B14 L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,16 +2454,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,17 +2776,17 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,6 +3079,329 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>2222.35003662109</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0.0030517578125</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>21.6639104284087</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.588682492333465</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>41715.9409179688</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>12061.0126953125</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>416751.143022694</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>1345042.18765495</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2.2552490234375</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>21.737105099601</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.590375905367306</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>40975.3237304688</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>11880.1345214844</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>2.9083251953125</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>22.2970868412931</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.615909982716922</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>37759.1547851562</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>11578.9702148438</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>3.5797119140625</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>23.1218928907705</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.649727715029181</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>35274.4760742187</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10632.3371582031</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>4.3060302734375</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>24.0795982950336</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.68705641661536</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>30204.2758789062</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>9835.640625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>5.0445556640625</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>24.8299616398584</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.725981902744768</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>27886.6547851562</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>9685.55004882813</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5.8074951171875</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>25.4287550232233</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.741524242701922</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>25859.5209960938</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>9116.27612304688</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>6.6131591796875</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>25.9818422883698</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.768526821123411</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>23480.1728515625</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>8569.94555664063</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>7.4310302734375</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>26.4496781636193</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.780800709143856</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>22171.3911132812</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>8270.81225585938</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>8.2366943359375</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>26.9208914130327</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.80001313668153</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>21723.3374023438</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>8214.123046875</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>9.1278076171875</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>27.3516651699022</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.814283841593984</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>20883.9541015625</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>8075.17016601562</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>10.1043701171875</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>27.7984741345494</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.82953953990152</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>19696.490234375</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>7728.54809570313</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>11.0992431640625</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>28.1968671894975</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.840799489507686</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>19116.7900390625</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>7471.89599609375</v>
       </c>
     </row>
   </sheetData>
@@ -3099,16 +3423,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="B2:B14 C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,16 +3746,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="B2:B14 D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3745,16 +4069,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="1" sqref="B2:B14 I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4068,16 +4392,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="1" sqref="B2:B14 L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,16 +4715,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,16 +5038,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="B2:B14 E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,16 +5361,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="B2:B14 E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,16 +5684,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="1" sqref="B2:B14 J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
